--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -28,31 +28,31 @@
     <t>Surname</t>
   </si>
   <si>
+    <t>Course Area</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Course Type</t>
+  </si>
+  <si>
+    <t>Course Duration</t>
+  </si>
+  <si>
+    <t>Primary / Secondary</t>
+  </si>
+  <si>
+    <t>Pre / Post Live</t>
+  </si>
+  <si>
+    <t>Job Roles</t>
+  </si>
+  <si>
     <t>OMS Function</t>
-  </si>
-  <si>
-    <t>Course Area</t>
-  </si>
-  <si>
-    <t>Course ID</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Course Type</t>
-  </si>
-  <si>
-    <t>Course Duration</t>
-  </si>
-  <si>
-    <t>Primary / Secondary</t>
-  </si>
-  <si>
-    <t>Pre / Post Live</t>
-  </si>
-  <si>
-    <t>Job Roles</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -492,31 +492,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13">

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NTID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>OMS Function</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -455,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,7 +481,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -518,34 +521,37 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="K2" s="6"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="2"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="2"/>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
       <c r="L5" s="8"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -554,7 +560,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -563,7 +569,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -572,7 +578,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -581,7 +587,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -590,7 +596,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="2"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -599,7 +605,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -608,7 +614,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -617,7 +623,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -626,7 +632,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="2"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -635,7 +641,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="2"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NTID</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>OMS Function</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,7 +478,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -521,37 +518,34 @@
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="K2" s="6"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="2"/>
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="K4" s="6"/>
       <c r="L4" s="8"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="2"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
       <c r="L5" s="8"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -560,7 +554,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="2"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -569,7 +563,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -578,7 +572,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -587,7 +581,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -596,7 +590,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -605,7 +599,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="2"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -614,7 +608,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="2"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -623,7 +617,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="2"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -632,7 +626,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="2"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -641,7 +635,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="COURSE REPORT" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'COURSE REPORT'!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -127,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -149,10 +149,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,17 +467,17 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
     <col min="9" max="9" width="37.7109375" customWidth="1"/>
@@ -479,22 +488,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -509,7 +518,7 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -520,153 +529,154 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="6"/>
+      <c r="A2" s="11"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="6"/>
+      <c r="A3" s="11"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6"/>
+      <c r="A4" s="11"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="6"/>
+      <c r="A6" s="11"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
+      <c r="A10" s="11"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="6"/>
+      <c r="A12" s="11"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
+      <c r="A14" s="11"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="6"/>
+      <c r="A15" s="11"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="6"/>
+      <c r="A16" s="11"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:10" hidden="1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="11"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="11"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="11"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2"/>
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -160,7 +160,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="55">
     <dxf>
       <font>
         <sz val="12"/>
@@ -456,9 +456,6 @@
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -470,1063 +467,74 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41696.71017071759" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41697.616153587966" missingItemsLimit="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:M61410" sheet="COURSE REPORT"/>
   </cacheSource>
   <cacheFields count="13">
     <cacheField name="NTID" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="240">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="JJAG15" u="1"/>
-        <s v="NJN7J6" u="1"/>
-        <s v="PABONM" u="1"/>
-        <s v="RAYMERSG" u="1"/>
-        <s v="GUAQMX" u="1"/>
-        <s v="KALMS0" u="1"/>
-        <s v="TAZVNU" u="1"/>
-        <s v="WILLLM" u="1"/>
-        <s v="ODONNELKP" u="1"/>
-        <s v="GRILA1" u="1"/>
-        <s v="RUIZA5" u="1"/>
-        <s v="KUYKENRD" u="1"/>
-        <s v="MANNSE" u="1"/>
-        <s v="UROLJ9" u="1"/>
-        <s v="HUDDR2" u="1"/>
-        <s v="MCDEC3" u="1"/>
-        <s v="PETRA8" u="1"/>
-        <s v="STERP0" u="1"/>
-        <s v="DEKY6P" u="1"/>
-        <s v="THOMPSRD" u="1"/>
-        <s v="DARGR3" u="1"/>
-        <s v="MEAJZ6" u="1"/>
-        <s v="NORTS1" u="1"/>
-        <s v="TIMMS2" u="1"/>
-        <s v="LOFTK0" u="1"/>
-        <s v="ADENKS" u="1"/>
-        <s v="EBJYDX" u="1"/>
-        <s v="THYST1" u="1"/>
-        <s v="ANTONYA" u="1"/>
-        <s v="BURNRF" u="1"/>
-        <s v="GROGANDL" u="1"/>
-        <s v="JEANSOMW" u="1"/>
-        <s v="MCDONACL" u="1"/>
-        <s v="STEELWJ" u="1"/>
-        <s v="ABDUST" u="1"/>
-        <s v="CUNNR0" u="1"/>
-        <s v="GHARS0" u="1"/>
-        <s v="GUTIERD" u="1"/>
-        <s v="BAKERDJ1" u="1"/>
-        <s v="FORTP1" u="1"/>
-        <s v="MCGAK0" u="1"/>
-        <s v="HAMPSHBD" u="1"/>
-        <s v="GAERC2" u="1"/>
-        <s v="JENKINSE" u="1"/>
-        <s v="BONCIB" u="1"/>
-        <s v="CUEVVP" u="1"/>
-        <s v="CZL8K2" u="1"/>
-        <s v="ELDEJX" u="1"/>
-        <s v="HOCVX2" u="1"/>
-        <s v="PATOF1" u="1"/>
-        <s v="HARMSJD" u="1"/>
-        <s v="KRAFFTKM" u="1"/>
-        <s v="ALBESD" u="1"/>
-        <s v="BAUMB3" u="1"/>
-        <s v="SANCPG" u="1"/>
-        <s v="SAUESR" u="1"/>
-        <s v="VCG1LO" u="1"/>
-        <s v="HULLM1" u="1"/>
-        <s v="JACW5F" u="1"/>
-        <s v="WTB2QI" u="1"/>
-        <s v="NAGENGCJ" u="1"/>
-        <s v="RINNR0" u="1"/>
-        <s v="RUIZM7" u="1"/>
-        <s v="VEERKAKS" u="1"/>
-        <s v="GKARV0" u="1"/>
-        <s v="LEWI33" u="1"/>
-        <s v="BURGB6" u="1"/>
-        <s v="SHHKG7" u="1"/>
-        <s v="BANONHH" u="1"/>
-        <s v="PELOUBRR" u="1"/>
-        <s v="SACHB1" u="1"/>
-        <s v="WELLS1" u="1"/>
-        <s v="PRIMEATJ" u="1"/>
-        <s v="BONID1" u="1"/>
-        <s v="COURB0" u="1"/>
-        <s v="LUCEM0" u="1"/>
-        <s v="PANTSS" u="1"/>
-        <s v="YACOT0" u="1"/>
-        <s v="CASXQF" u="1"/>
-        <s v="HOOPJB" u="1"/>
-        <s v="GILLI5" u="1"/>
-        <s v="HOOKRT" u="1"/>
-        <s v="GUMMELGW" u="1"/>
-        <s v="HEGJ00" u="1"/>
-        <s v="HUGHB5" u="1"/>
-        <s v="PRUDK0" u="1"/>
-        <s v="SMITHKL" u="1"/>
-        <s v="TAYLORA" u="1"/>
-        <s v="HARMANRE" u="1"/>
-        <s v="OHLENFTJ" u="1"/>
-        <s v="BUSHM3" u="1"/>
-        <s v="JOHNIC" u="1"/>
-        <s v="LINJ01" u="1"/>
-        <s v="CHAPAEA" u="1"/>
-        <s v="AMJVS7" u="1"/>
-        <s v="BOYL01" u="1"/>
-        <s v="PALLS4" u="1"/>
-        <s v="HOLCW0" u="1"/>
-        <s v="LESLC3" u="1"/>
-        <s v="ERDBK0" u="1"/>
-        <s v="GAUTJC" u="1"/>
-        <s v="TOAGTD" u="1"/>
-        <s v="HASSOLTA" u="1"/>
-        <s v="COWEJ1" u="1"/>
-        <s v="HISTZZ" u="1"/>
-        <s v="PARKB8" u="1"/>
-        <s v="SAJDK0" u="1"/>
-        <s v="ZERPR0" u="1"/>
-        <s v="ENGLANDB" u="1"/>
-        <s v="HARGM1" u="1"/>
-        <s v="STRAH3" u="1"/>
-        <s v="UHG1NX" u="1"/>
-        <s v="WALTJP" u="1"/>
-        <s v="PETTYSD" u="1"/>
-        <s v="CCHE2Y" u="1"/>
-        <s v="FERRMU" u="1"/>
-        <s v="LASKJF" u="1"/>
-        <s v="SANC20" u="1"/>
-        <s v="PAVLM2" u="1"/>
-        <s v="DELAMF" u="1"/>
-        <s v="JAB9FY" u="1"/>
-        <s v="LINGKX" u="1"/>
-        <s v="MITCHETD" u="1"/>
-        <s v="MOUTONMK" u="1"/>
-        <s v="BOFTNZ" u="1"/>
-        <s v="FOXR03" u="1"/>
-        <s v="HENAC0" u="1"/>
-        <s v="COURST" u="1"/>
-        <s v="IGDXEI" u="1"/>
-        <s v="MALOG1" u="1"/>
-        <s v="WILLITC" u="1"/>
-        <s v="XUSJ" u="1"/>
-        <s v="CHART6" u="1"/>
-        <s v="ISAAR0" u="1"/>
-        <s v="RULEJ0" u="1"/>
-        <s v="CONNIEE" u="1"/>
-        <s v="DAILC1" u="1"/>
-        <s v="SALVS2" u="1"/>
-        <s v="KOEPKESD" u="1"/>
-        <s v="BURKJ5" u="1"/>
-        <s v="GLATP2" u="1"/>
-        <s v="HENSKA" u="1"/>
-        <s v="ROUBS0" u="1"/>
-        <s v="ADORMQ" u="1"/>
-        <s v="DEBOA4" u="1"/>
-        <s v="EGGED1" u="1"/>
-        <s v="TIMBC1" u="1"/>
-        <s v="EASOR0" u="1"/>
-        <s v="GOULEK" u="1"/>
-        <s v="ELLIMB" u="1"/>
-        <s v="PHANK1" u="1"/>
-        <s v="PRLRAH" u="1"/>
-        <s v="KERNSRS" u="1"/>
-        <s v="BJA2MG" u="1"/>
-        <s v="MUNDJ1" u="1"/>
-        <s v="S1HIS0" u="1"/>
-        <s v="BREAB0" u="1"/>
-        <s v="JAWO90" u="1"/>
-        <s v="GEBHARLA" u="1"/>
-        <s v="ARMSD7" u="1"/>
-        <s v="GUERJ6" u="1"/>
-        <s v="LAUR03" u="1"/>
-        <s v="NEWCS1" u="1"/>
-        <s v="HADAF0" u="1"/>
-        <s v="KYLED2" u="1"/>
-        <s v="CHANGET" u="1"/>
-        <s v="HILLSAR" u="1"/>
-        <s v="QUIRINBJ" u="1"/>
-        <s v="PASSS0" u="1"/>
-        <s v="POWES5" u="1"/>
-        <s v="RUSCR0" u="1"/>
-        <s v="MADISOKC" u="1"/>
-        <s v="RIVERAR1" u="1"/>
-        <s v="LYOEM0" u="1"/>
-        <s v="MCKESY" u="1"/>
-        <s v="SARIH2" u="1"/>
-        <s v="SEGURABP" u="1"/>
-        <s v="BAIKJ1" u="1"/>
-        <s v="BROWCB" u="1"/>
-        <s v="GAGLC0" u="1"/>
-        <s v="GEREJ0" u="1"/>
-        <s v="NICKD1" u="1"/>
-        <s v="KELLYCA1" u="1"/>
-        <s v="COOKJ4" u="1"/>
-        <s v="GREEJN" u="1"/>
-        <s v="MOREB1" u="1"/>
-        <s v="RAMIJ0" u="1"/>
-        <s v="BREIWC" u="1"/>
-        <s v="FREACM" u="1"/>
-        <s v="NEGRY0" u="1"/>
-        <s v="OMONG0" u="1"/>
-        <s v="MILLERHS" u="1"/>
-        <s v="CBT3W8" u="1"/>
-        <s v="GIMV5M" u="1"/>
-        <s v="MORSL0" u="1"/>
-        <s v="ROEGG" u="1"/>
-        <s v="GARLK0" u="1"/>
-        <s v="GRAYT7" u="1"/>
-        <s v="CASAVERE" u="1"/>
-        <s v="OWCWZ0" u="1"/>
-        <s v="TANDS2" u="1"/>
-        <s v="TRAFA0" u="1"/>
-        <s v="DAVIBK" u="1"/>
-        <s v="SMITZA" u="1"/>
-        <s v="DEVERSKJ" u="1"/>
-        <s v="APPEED" u="1"/>
-        <s v="BEB9DI" u="1"/>
-        <s v="GAGNA0" u="1"/>
-        <s v="PRM6JX" u="1"/>
-        <s v="WERNB0" u="1"/>
-        <s v="CAJFAS" u="1"/>
-        <s v="DUFONW" u="1"/>
-        <s v="PSFMFL" u="1"/>
-        <s v="HYATTSF" u="1"/>
-        <s v="DOUGH0" u="1"/>
-        <s v="MENGQ0" u="1"/>
-        <s v="SANCL9" u="1"/>
-        <s v="STEVC5" u="1"/>
-        <s v="VILLJM" u="1"/>
-        <s v="AYCOCKRT" u="1"/>
-        <s v="GIMJGE" u="1"/>
-        <s v="HUTCSL" u="1"/>
-        <s v="ADEYA4" u="1"/>
-        <s v="ANGECE" u="1"/>
-        <s v="BARRSX" u="1"/>
-        <s v="BAUDAR" u="1"/>
-        <s v="BOLLR4" u="1"/>
-        <s v="ROBITP" u="1"/>
-        <s v="BARKERCD" u="1"/>
-        <s v="montesmv" u="1"/>
-        <s v="KEPQL1" u="1"/>
-        <s v="PATEP8" u="1"/>
-        <s v="QUEVEPJ" u="1"/>
-        <s v="PILAC0" u="1"/>
-        <s v="TIPPR0" u="1"/>
-        <s v="CABEA1" u="1"/>
-        <s v="ONGCGR" u="1"/>
-        <s v="ARORH1" u="1"/>
-        <s v="NAEEMSM" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Full Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="240">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="LUCY,GEBHART" u="1"/>
-        <s v="ALEXIS,GRILLOT" u="1"/>
-        <s v="KATHLEEN,LINGER" u="1"/>
-        <s v="Jay,HOOPER" u="1"/>
-        <s v="RICHARD,LAU" u="1"/>
-        <s v="JUAN,VILLARREAL" u="1"/>
-        <s v="Marco,Montesinos" u="1"/>
-        <s v="JOHN,BOYLE" u="1"/>
-        <s v="LEAH,PRESTON" u="1"/>
-        <s v="BLAINE,SEGURA" u="1"/>
-        <s v="SHANA,TIMMONS" u="1"/>
-        <s v="GARRICK,MALONE" u="1"/>
-        <s v="TONY,ROBICHAUX" u="1"/>
-        <s v="Mike,BUSH" u="1"/>
-        <s v="KENNON,SMITH" u="1"/>
-        <s v="MARTIN,PABON" u="1"/>
-        <s v="WESLEY,Obrien" u="1"/>
-        <s v="JUSTIN,WALTERS" u="1"/>
-        <s v="CHRISTOPHER,MCDERMOTT" u="1"/>
-        <s v="MINH,GIANG" u="1"/>
-        <s v="Chris,FREANEY" u="1"/>
-        <s v="ROGER,THOMPSON" u="1"/>
-        <s v="STUART,MCKENZIE" u="1"/>
-        <s v="REJI,EASON" u="1"/>
-        <s v="Allen,BAUDOIN" u="1"/>
-        <s v="KAREN,VEERKAMP" u="1"/>
-        <s v="STEPHEN,BARAKIS" u="1"/>
-        <s v="DANIEL,Gutierriz" u="1"/>
-        <s v="FOLARIN,BOLATIWA" u="1"/>
-        <s v="JEFFERY,COOK" u="1"/>
-        <s v="ZAUR,TAGHIYEV" u="1"/>
-        <s v="OLATUNDUN,ADEJUYIGBE" u="1"/>
-        <s v="ERIC,APPEL" u="1"/>
-        <s v="ERASMO,CHAPA" u="1"/>
-        <s v="RYAN,BOLLING" u="1"/>
-        <s v="LEONARD,SANCHEZ" u="1"/>
-        <s v="KYLE,SAJDAK" u="1"/>
-        <s v="Troy,AYCOCK" u="1"/>
-        <s v="CATHAL,KELLY" u="1"/>
-        <s v="JIMMY,GUERRERO" u="1"/>
-        <s v="JOAQUIN,BORGES" u="1"/>
-        <s v="MATTHEW,PAVLAS" u="1"/>
-        <s v="BRIAN,BURGE" u="1"/>
-        <s v="JASON,EBERLY" u="1"/>
-        <s v="HIMANSHU,ARORA" u="1"/>
-        <s v="BRIAN,HAMPSHIRE" u="1"/>
-        <s v="Ian,JOHNSON" u="1"/>
-        <s v="SUSAN,PEPPER" u="1"/>
-        <s v="STEPHEN,SAUER" u="1"/>
-        <s v="Vassilis,GKARAS" u="1"/>
-        <s v="HEATHER,STRATTON" u="1"/>
-        <s v="Tim,GRAY" u="1"/>
-        <s v="STEVEN,NEWCOMB" u="1"/>
-        <s v="JASON,GERENCSER" u="1"/>
-        <s v="Doug,HANNA" u="1"/>
-        <s v="SHANE,WELLS" u="1"/>
-        <s v="WILBERT,JACA" u="1"/>
-        <s v="KARLA,DELGADO" u="1"/>
-        <s v="ADAM,DEBORTOLI" u="1"/>
-        <s v="THOMAS,HASSOLD" u="1"/>
-        <s v="David,BARKER" u="1"/>
-        <s v="MARK,ELLIOTT" u="1"/>
-        <s v="Clay,WILLIAMS" u="1"/>
-        <s v="JACK,COWEN" u="1"/>
-        <s v="LESLI,COLINA" u="1"/>
-        <s v="RAJESH,DARGAN" u="1"/>
-        <s v="SETH,COURTNEY" u="1"/>
-        <s v="JOHN,LASKOSKIE" u="1"/>
-        <s v="SIMM,POWELL" u="1"/>
-        <s v="JIJUN,LIN" u="1"/>
-        <s v="JOHN,GREEN" u="1"/>
-        <s v="Steve,PETTY" u="1"/>
-        <s v="NAEEM,SHAIKH" u="1"/>
-        <s v="SHANE,ALBERS" u="1"/>
-        <s v="Patty G,SANCHEZ" u="1"/>
-        <s v="CHARLIE,Piland Jr" u="1"/>
-        <s v="LISA,CZYSZCZEWSKI" u="1"/>
-        <s v="NIRAV,PATEL" u="1"/>
-        <s v="Matt,PRESSEL" u="1"/>
-        <s v="ARTURO,RUIZ-APARICIO" u="1"/>
-        <s v="RICHARD,HOOKER" u="1"/>
-        <s v="WILLIAM,HOLCOMBE" u="1"/>
-        <s v="SARITHA,PALLEMPATI" u="1"/>
-        <s v="DAVID,ENGLAND" u="1"/>
-        <s v="SARA,SALVESEN" u="1"/>
-        <s v="SHERMAN,XU" u="1"/>
-        <s v="Beau,BREAUX" u="1"/>
-        <s v="JORGE,AMARAL" u="1"/>
-        <s v="JULIE,SAWYER" u="1"/>
-        <s v="TIMOTHY,MITCHELL" u="1"/>
-        <s v="DWAYNE,BONIN" u="1"/>
-        <s v="SARA,PASSONE" u="1"/>
-        <s v="JOHN,GAUTREAU" u="1"/>
-        <s v="DEDRIC,ARMSTRONG" u="1"/>
-        <s v="BENJAMIN,CRABTREE" u="1"/>
-        <s v="KEITH,HENSON" u="1"/>
-        <s v="KEVIN,DEVERS" u="1"/>
-        <s v="EUGENE,CONNICK" u="1"/>
-        <s v="Don,GROGAN" u="1"/>
-        <s v="OSCAR,URIBE" u="1"/>
-        <s v="JULIAN,CASTRO" u="1"/>
-        <s v="Ronnie,RIVERA" u="1"/>
-        <s v="ROBERT,HUDDLESTON" u="1"/>
-        <s v="ERIN,CHANG" u="1"/>
-        <s v="JAMES,RULE" u="1"/>
-        <s v="BRIAN,QUIRING" u="1"/>
-        <s v="CAROLINE,HENAO" u="1"/>
-        <s v="CARLO,GAGLIONE" u="1"/>
-        <s v="HOOSHANG,BANON" u="1"/>
-        <s v="REGINA,TIPPETT" u="1"/>
-        <s v="KIMBERLY,MCGANNON" u="1"/>
-        <s v="STEVEN,MANNERING" u="1"/>
-        <s v="MAX,LYOEN" u="1"/>
-        <s v="KATHERINE,KRAFFT" u="1"/>
-        <s v="CHRISTOPHER,ANGEL" u="1"/>
-        <s v="STEVE,KALMUS" u="1"/>
-        <s v="PREETHI,KEDAMBADI" u="1"/>
-        <s v="HARDIK,SHAH" u="1"/>
-        <s v="JASON,JANDA" u="1"/>
-        <s v="CHUAN HOW,CHAN" u="1"/>
-        <s v="CALEB,STEVENSON" u="1"/>
-        <s v="FARID,HADAEGH" u="1"/>
-        <s v="JASON,BURKHALTER" u="1"/>
-        <s v="MIGUEL,RUIZ-SCHNITTER" u="1"/>
-        <s v="GLEN,UHACK" u="1"/>
-        <s v="Ricky,BURNS" u="1"/>
-        <s v="GABRIEL,OMONOJI" u="1"/>
-        <s v="ROBERT,CUNNINGHAM" u="1"/>
-        <s v="HELEN,MILLER" u="1"/>
-        <s v="Steve,KOEPKE" u="1"/>
-        <s v="GERALD,GUMMELT" u="1"/>
-        <s v="BENJAMIN,HUGHES" u="1"/>
-        <s v="WILLIAM,O'DONNELL" u="1"/>
-        <s v="CHARLES,BONVILLIAN JR" u="1"/>
-        <s v="NEIL,DUFOUR" u="1"/>
-        <s v="Chase,BREIDENTHAL" u="1"/>
-        <s v="SHANNON,ROUBIQUE" u="1"/>
-        <s v="SETH,NORTON" u="1"/>
-        <s v="Keith,MOUTON" u="1"/>
-        <s v="ROLAND,RUSCA" u="1"/>
-        <s v="MICHAEL,FERRARA" u="1"/>
-        <s v="BRYAN,BAUMANN" u="1"/>
-        <s v="Taffi,GILLANI" u="1"/>
-        <s v="MARTIN,JEANSONNE" u="1"/>
-        <s v="SEYMUR,ABDURAHMANOV" u="1"/>
-        <s v="Rich,CASAVECCHIA" u="1"/>
-        <s v="KRISTEN,LOFTUS" u="1"/>
-        <s v="ANDROKOL,MENGRI" u="1"/>
-        <s v="STEVEN,SCHIEBEL" u="1"/>
-        <s v="CHARLES,NAGENGAST" u="1"/>
-        <s v="CLARENCE,HOLMSTROM" u="1"/>
-        <s v="HAYRI,SARI" u="1"/>
-        <s v="PAUL,STERN" u="1"/>
-        <s v="Tony,YACOB" u="1"/>
-        <s v="BEN,WERNETTE" u="1"/>
-        <s v="Brian,MORENO" u="1"/>
-        <s v="BARRY,COURTNEY" u="1"/>
-        <s v="SARAH,CARRUTH" u="1"/>
-        <s v="JACINTO,RAMIREZ" u="1"/>
-        <s v="JAN,MUNDORFF" u="1"/>
-        <s v="KEITH,PRUDEN" u="1"/>
-        <s v="LYNDA,MORSE" u="1"/>
-        <s v="BEN,SACHS" u="1"/>
-        <s v="KAREN,FAIN" u="1"/>
-        <s v="ALMA,TORRES" u="1"/>
-        <s v="BRIAN,DAVIS" u="1"/>
-        <s v="PEDRO,QUEVEDO" u="1"/>
-        <s v="STEPHEN,RAYMER" u="1"/>
-        <s v="ADAM,GAGNE" u="1"/>
-        <s v="CLINT,JACKSON" u="1"/>
-        <s v="SHADI,GHARFEH" u="1"/>
-        <s v="TOBIN,GLASGOW" u="1"/>
-        <s v="DEREK,IGNATIUS" u="1"/>
-        <s v="ADEYINKA,ADELEKE" u="1"/>
-        <s v="KIM,PHAN" u="1"/>
-        <s v="CORY,DAILEY" u="1"/>
-        <s v="LISA,JENSON" u="1"/>
-        <s v="DANIEL,EGGERT" u="1"/>
-        <s v="RYAN,RINNAN" u="1"/>
-        <s v="PRATIK,PATEL" u="1"/>
-        <s v="CHRISTOPHER,VOINCHE" u="1"/>
-        <s v="Doug,BAKER" u="1"/>
-        <s v="RYAN,LEWIS" u="1"/>
-        <s v="ELIJAH,GOULD" u="1"/>
-        <s v="John,MENG" u="1"/>
-        <s v="RACHEL,FOX" u="1"/>
-        <s v="SUSAN,HYATT" u="1"/>
-        <s v="Peyton,CUEVAS" u="1"/>
-        <s v="AARON,PETREE" u="1"/>
-        <s v="BARRY,BELL" u="1"/>
-        <s v="Terri,THYSSEN" u="1"/>
-        <s v="CLARA,GAERTNER" u="1"/>
-        <s v="MYKEL,DELANDRO" u="1"/>
-        <s v="Michael,HARGRODER" u="1"/>
-        <s v="KRISTIN,SMITH" u="1"/>
-        <s v="SHERRY,BYRNES" u="1"/>
-        <s v="ALFONSO,CABEZAS" u="1"/>
-        <s v="JOHN,BAIK" u="1"/>
-        <s v="PAUL,FORTUNE" u="1"/>
-        <s v="RONALD,HARMAN" u="1"/>
-        <s v="Sarah,Hill" u="1"/>
-        <s v="JASON,NGUYEN" u="1"/>
-        <s v="JASON,BARROWS" u="1"/>
-        <s v="PARKER,BERRY" u="1"/>
-        <s v="WILLIAM,STEEL" u="1"/>
-        <s v="CHARLES,MCDONALD" u="1"/>
-        <s v="THOMAS,OHLENFORST" u="1"/>
-        <s v="Jay,HARMS" u="1"/>
-        <s v="DAVID,KYLE" u="1"/>
-        <s v="KEVIN,ADEN" u="1"/>
-        <s v="MEGHAN,HULL" u="1"/>
-        <s v="FRASER,PATON" u="1"/>
-        <s v="RENEE,ISAACS" u="1"/>
-        <s v="SUNIL,TANDON" u="1"/>
-        <s v="TY,WIGGINS" u="1"/>
-        <s v="TOBY,PRIMEAUX" u="1"/>
-        <s v="MAURO,GILLETTE" u="1"/>
-        <s v="Cindy,BROWN" u="1"/>
-        <s v="MATTHEW,LUCE" u="1"/>
-        <s v="MAYRA,SANCHEZ" u="1"/>
-        <s v="CHRISTOPHER,TIMBERG" u="1"/>
-        <s v="AJITH,ANTONY" u="1"/>
-        <s v="AMBER,TRAFTON" u="1"/>
-        <s v="ALASTAIR,TAYLOR" u="1"/>
-        <s v="ROBERT,PELOUBET" u="1"/>
-        <s v="KYLE,ERDBRUEGGER" u="1"/>
-        <s v="DERRICK,NICKERSON" u="1"/>
-        <s v="KATHERINE,GARLAND" u="1"/>
-        <s v="CHEE,ONG" u="1"/>
-        <s v="JOHN,HEG" u="1"/>
-        <s v="RONNIE,ZERPA" u="1"/>
-        <s v="GARY,ROE" u="1"/>
-        <s v="SHARON,Hillman" u="1"/>
-        <s v="ROSS,KERNS" u="1"/>
-        <s v="APURVA,GUPTA" u="1"/>
-        <s v="SANDRA,GIBBS" u="1"/>
-        <s v="ROSS,KUYKENDALL" u="1"/>
-        <s v="THERESA,LOYACANO" u="1"/>
-        <s v="YEISHI,HUDDLESTON" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="First Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="178">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="JIJUN" u="1"/>
-        <s v="STEVEN" u="1"/>
-        <s v="AMBER" u="1"/>
-        <s v="Ronnie" u="1"/>
-        <s v="KIMBERLY" u="1"/>
-        <s v="CHEE" u="1"/>
-        <s v="Clay" u="1"/>
-        <s v="ROSS" u="1"/>
-        <s v="ERASMO" u="1"/>
-        <s v="PRATIK" u="1"/>
-        <s v="BLAINE" u="1"/>
-        <s v="DWAYNE" u="1"/>
-        <s v="GERALD" u="1"/>
-        <s v="WILBERT" u="1"/>
-        <s v="KAREN" u="1"/>
-        <s v="TIMOTHY" u="1"/>
-        <s v="HIMANSHU" u="1"/>
-        <s v="CORY" u="1"/>
-        <s v="RAJESH" u="1"/>
-        <s v="Patty G" u="1"/>
-        <s v="BEN" u="1"/>
-        <s v="KATHERINE" u="1"/>
-        <s v="FARID" u="1"/>
-        <s v="NAEEM" u="1"/>
-        <s v="SHANE" u="1"/>
-        <s v="Cindy" u="1"/>
-        <s v="JORGE" u="1"/>
-        <s v="DEDRIC" u="1"/>
-        <s v="Peyton" u="1"/>
-        <s v="Vassilis" u="1"/>
-        <s v="Don" u="1"/>
-        <s v="LISA" u="1"/>
-        <s v="TONY" u="1"/>
-        <s v="Chris" u="1"/>
-        <s v="REGINA" u="1"/>
-        <s v="STEPHEN" u="1"/>
-        <s v="JIMMY" u="1"/>
-        <s v="THOMAS" u="1"/>
-        <s v="JEFFERY" u="1"/>
-        <s v="ADAM" u="1"/>
-        <s v="Taffi" u="1"/>
-        <s v="DANIEL" u="1"/>
-        <s v="RYAN" u="1"/>
-        <s v="ALFONSO" u="1"/>
-        <s v="CHRISTOPHER" u="1"/>
-        <s v="BRIAN" u="1"/>
-        <s v="MATTHEW" u="1"/>
-        <s v="ZAUR" u="1"/>
-        <s v="BARRY" u="1"/>
-        <s v="SUSAN" u="1"/>
-        <s v="KENNON" u="1"/>
-        <s v="ERIN" u="1"/>
-        <s v="TOBIN" u="1"/>
-        <s v="SEYMUR" u="1"/>
-        <s v="WILLIAM" u="1"/>
-        <s v="CLINT" u="1"/>
-        <s v="KEITH" u="1"/>
-        <s v="Beau" u="1"/>
-        <s v="Doug" u="1"/>
-        <s v="SETH" u="1"/>
-        <s v="FOLARIN" u="1"/>
-        <s v="CALEB" u="1"/>
-        <s v="David" u="1"/>
-        <s v="JAN" u="1"/>
-        <s v="MARK" u="1"/>
-        <s v="KARLA" u="1"/>
-        <s v="RENEE" u="1"/>
-        <s v="ROGER" u="1"/>
-        <s v="CHUAN HOW" u="1"/>
-        <s v="ERIC" u="1"/>
-        <s v="Allen" u="1"/>
-        <s v="HEATHER" u="1"/>
-        <s v="PEDRO" u="1"/>
-        <s v="ROLAND" u="1"/>
-        <s v="Terri" u="1"/>
-        <s v="PARKER" u="1"/>
-        <s v="YEISHI" u="1"/>
-        <s v="THERESA" u="1"/>
-        <s v="ANDROKOL" u="1"/>
-        <s v="GARY" u="1"/>
-        <s v="KYLE" u="1"/>
-        <s v="Ricky" u="1"/>
-        <s v="HAYRI" u="1"/>
-        <s v="OSCAR" u="1"/>
-        <s v="SHADI" u="1"/>
-        <s v="SHARON" u="1"/>
-        <s v="SHANNON" u="1"/>
-        <s v="CHARLES" u="1"/>
-        <s v="MARTIN" u="1"/>
-        <s v="ALASTAIR" u="1"/>
-        <s v="MYKEL" u="1"/>
-        <s v="NEIL" u="1"/>
-        <s v="Rich" u="1"/>
-        <s v="Matt" u="1"/>
-        <s v="REJI" u="1"/>
-        <s v="MAURO" u="1"/>
-        <s v="CLARENCE" u="1"/>
-        <s v="EUGENE" u="1"/>
-        <s v="SANDRA" u="1"/>
-        <s v="LUCY" u="1"/>
-        <s v="ELIJAH" u="1"/>
-        <s v="ADEYINKA" u="1"/>
-        <s v="SHERRY" u="1"/>
-        <s v="MICHAEL" u="1"/>
-        <s v="KATHLEEN" u="1"/>
-        <s v="ALEXIS" u="1"/>
-        <s v="PAUL" u="1"/>
-        <s v="GABRIEL" u="1"/>
-        <s v="DEREK" u="1"/>
-        <s v="NIRAV" u="1"/>
-        <s v="CLARA" u="1"/>
-        <s v="SUNIL" u="1"/>
-        <s v="JASON" u="1"/>
-        <s v="LESLI" u="1"/>
-        <s v="CATHAL" u="1"/>
-        <s v="Jay" u="1"/>
-        <s v="JACK" u="1"/>
-        <s v="STEVE" u="1"/>
-        <s v="JUSTIN" u="1"/>
-        <s v="JOAQUIN" u="1"/>
-        <s v="KRISTEN" u="1"/>
-        <s v="OLATUNDUN" u="1"/>
-        <s v="BRYAN" u="1"/>
-        <s v="HELEN" u="1"/>
-        <s v="MEGHAN" u="1"/>
-        <s v="AJITH" u="1"/>
-        <s v="JAMES" u="1"/>
-        <s v="WESLEY" u="1"/>
-        <s v="MINH" u="1"/>
-        <s v="Troy" u="1"/>
-        <s v="SHANA" u="1"/>
-        <s v="HOOSHANG" u="1"/>
-        <s v="Tim" u="1"/>
-        <s v="SIMM" u="1"/>
-        <s v="JUAN" u="1"/>
-        <s v="SARAH" u="1"/>
-        <s v="STUART" u="1"/>
-        <s v="DERRICK" u="1"/>
-        <s v="SHERMAN" u="1"/>
-        <s v="BENJAMIN" u="1"/>
-        <s v="RONALD" u="1"/>
-        <s v="TOBY" u="1"/>
-        <s v="MIGUEL" u="1"/>
-        <s v="ROBERT" u="1"/>
-        <s v="RICHARD" u="1"/>
-        <s v="FRASER" u="1"/>
-        <s v="JULIAN" u="1"/>
-        <s v="JOHN" u="1"/>
-        <s v="CARLO" u="1"/>
-        <s v="MAYRA" u="1"/>
-        <s v="AARON" u="1"/>
-        <s v="HARDIK" u="1"/>
-        <s v="JACINTO" u="1"/>
-        <s v="SARITHA" u="1"/>
-        <s v="LEAH" u="1"/>
-        <s v="Chase" u="1"/>
-        <s v="KEVIN" u="1"/>
-        <s v="KRISTIN" u="1"/>
-        <s v="CHARLIE" u="1"/>
-        <s v="ALMA" u="1"/>
-        <s v="JULIE" u="1"/>
-        <s v="TY" u="1"/>
-        <s v="SARA" u="1"/>
-        <s v="ARTURO" u="1"/>
-        <s v="GLEN" u="1"/>
-        <s v="RACHEL" u="1"/>
-        <s v="PREETHI" u="1"/>
-        <s v="CAROLINE" u="1"/>
-        <s v="MAX" u="1"/>
-        <s v="LEONARD" u="1"/>
-        <s v="KIM" u="1"/>
-        <s v="Mike" u="1"/>
-        <s v="Marco" u="1"/>
-        <s v="GARRICK" u="1"/>
-        <s v="Ian" u="1"/>
-        <s v="APURVA" u="1"/>
-        <s v="LYNDA" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Surname" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="234">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="HENAO" u="1"/>
-        <s v="TANDON" u="1"/>
-        <s v="GERENCSER" u="1"/>
-        <s v="BURNS" u="1"/>
-        <s v="ALBERS" u="1"/>
-        <s v="CHAN" u="1"/>
-        <s v="BONIN" u="1"/>
-        <s v="CHANG" u="1"/>
-        <s v="DAVIS" u="1"/>
-        <s v="WALTERS" u="1"/>
-        <s v="SALVESEN" u="1"/>
-        <s v="BOLATIWA" u="1"/>
-        <s v="ONG" u="1"/>
-        <s v="TIMBERG" u="1"/>
-        <s v="MILLER" u="1"/>
-        <s v="MCKENZIE" u="1"/>
-        <s v="MCDERMOTT" u="1"/>
-        <s v="BURKHALTER" u="1"/>
-        <s v="SARI" u="1"/>
-        <s v="COWEN" u="1"/>
-        <s v="UHACK" u="1"/>
-        <s v="PRESTON" u="1"/>
-        <s v="ROUBIQUE" u="1"/>
-        <s v="PETTY" u="1"/>
-        <s v="PAVLAS" u="1"/>
-        <s v="GILLANI" u="1"/>
-        <s v="KRAFFT" u="1"/>
-        <s v="POWELL" u="1"/>
-        <s v="OMONOJI" u="1"/>
-        <s v="HOLMSTROM" u="1"/>
-        <s v="BANON" u="1"/>
-        <s v="MENGRI" u="1"/>
-        <s v="Hill" u="1"/>
-        <s v="COLINA" u="1"/>
-        <s v="PELOUBET" u="1"/>
-        <s v="DELGADO" u="1"/>
-        <s v="HARGRODER" u="1"/>
-        <s v="DEVERS" u="1"/>
-        <s v="BARROWS" u="1"/>
-        <s v="BONVILLIAN JR" u="1"/>
-        <s v="ADEN" u="1"/>
-        <s v="MORSE" u="1"/>
-        <s v="LINGER" u="1"/>
-        <s v="CRABTREE" u="1"/>
-        <s v="GAUTREAU" u="1"/>
-        <s v="HARMS" u="1"/>
-        <s v="DARGAN" u="1"/>
-        <s v="GUMMELT" u="1"/>
-        <s v="MCDONALD" u="1"/>
-        <s v="PATON" u="1"/>
-        <s v="IGNATIUS" u="1"/>
-        <s v="BROWN" u="1"/>
-        <s v="GIANG" u="1"/>
-        <s v="FOX" u="1"/>
-        <s v="GUPTA" u="1"/>
-        <s v="BORGES" u="1"/>
-        <s v="GROGAN" u="1"/>
-        <s v="NGUYEN" u="1"/>
-        <s v="HADAEGH" u="1"/>
-        <s v="STEEL" u="1"/>
-        <s v="EGGERT" u="1"/>
-        <s v="HOOKER" u="1"/>
-        <s v="BAUMANN" u="1"/>
-        <s v="KOEPKE" u="1"/>
-        <s v="NORTON" u="1"/>
-        <s v="RAYMER" u="1"/>
-        <s v="ERDBRUEGGER" u="1"/>
-        <s v="RUIZ-APARICIO" u="1"/>
-        <s v="GAGLIONE" u="1"/>
-        <s v="DAILEY" u="1"/>
-        <s v="HARMAN" u="1"/>
-        <s v="NICKERSON" u="1"/>
-        <s v="RULE" u="1"/>
-        <s v="ARORA" u="1"/>
-        <s v="NAGENGAST" u="1"/>
-        <s v="BERRY" u="1"/>
-        <s v="GKARAS" u="1"/>
-        <s v="PETREE" u="1"/>
-        <s v="HASSOLD" u="1"/>
-        <s v="COOK" u="1"/>
-        <s v="DELANDRO" u="1"/>
-        <s v="HOLCOMBE" u="1"/>
-        <s v="SHAH" u="1"/>
-        <s v="JENSON" u="1"/>
-        <s v="LIN" u="1"/>
-        <s v="LOFTUS" u="1"/>
-        <s v="HYATT" u="1"/>
-        <s v="ZERPA" u="1"/>
-        <s v="CUNNINGHAM" u="1"/>
-        <s v="HEG" u="1"/>
-        <s v="LAU" u="1"/>
-        <s v="HULL" u="1"/>
-        <s v="YACOB" u="1"/>
-        <s v="Hillman" u="1"/>
-        <s v="BAKER" u="1"/>
-        <s v="RIVERA" u="1"/>
-        <s v="MCGANNON" u="1"/>
-        <s v="WERNETTE" u="1"/>
-        <s v="HUDDLESTON" u="1"/>
-        <s v="BOYLE" u="1"/>
-        <s v="ANTONY" u="1"/>
-        <s v="HAMPSHIRE" u="1"/>
-        <s v="KYLE" u="1"/>
-        <s v="ENGLAND" u="1"/>
-        <s v="SANCHEZ" u="1"/>
-        <s v="STRATTON" u="1"/>
-        <s v="BAIK" u="1"/>
-        <s v="BUSH" u="1"/>
-        <s v="KERNS" u="1"/>
-        <s v="EBERLY" u="1"/>
-        <s v="SAWYER" u="1"/>
-        <s v="BREIDENTHAL" u="1"/>
-        <s v="GHARFEH" u="1"/>
-        <s v="Piland Jr" u="1"/>
-        <s v="XU" u="1"/>
-        <s v="RINNAN" u="1"/>
-        <s v="SAJDAK" u="1"/>
-        <s v="MITCHELL" u="1"/>
-        <s v="PHAN" u="1"/>
-        <s v="HUGHES" u="1"/>
-        <s v="VOINCHE" u="1"/>
-        <s v="COURTNEY" u="1"/>
-        <s v="GUERRERO" u="1"/>
-        <s v="LEWIS" u="1"/>
-        <s v="PATEL" u="1"/>
-        <s v="BARKER" u="1"/>
-        <s v="HENSON" u="1"/>
-        <s v="KALMUS" u="1"/>
-        <s v="BELL" u="1"/>
-        <s v="LUCE" u="1"/>
-        <s v="MORENO" u="1"/>
-        <s v="MANNERING" u="1"/>
-        <s v="EASON" u="1"/>
-        <s v="GAGNE" u="1"/>
-        <s v="AMARAL" u="1"/>
-        <s v="WIGGINS" u="1"/>
-        <s v="KELLY" u="1"/>
-        <s v="URIBE" u="1"/>
-        <s v="WELLS" u="1"/>
-        <s v="Obrien" u="1"/>
-        <s v="QUIRING" u="1"/>
-        <s v="DEBORTOLI" u="1"/>
-        <s v="CUEVAS" u="1"/>
-        <s v="DUFOUR" u="1"/>
-        <s v="GLASGOW" u="1"/>
-        <s v="NEWCOMB" u="1"/>
-        <s v="TIPPETT" u="1"/>
-        <s v="ANGEL" u="1"/>
-        <s v="GIBBS" u="1"/>
-        <s v="GOULD" u="1"/>
-        <s v="JACKSON" u="1"/>
-        <s v="PRIMEAUX" u="1"/>
-        <s v="JEANSONNE" u="1"/>
-        <s v="CASAVECCHIA" u="1"/>
-        <s v="JANDA" u="1"/>
-        <s v="JACA" u="1"/>
-        <s v="RUSCA" u="1"/>
-        <s v="MALONE" u="1"/>
-        <s v="LOYACANO" u="1"/>
-        <s v="STERN" u="1"/>
-        <s v="TAYLOR" u="1"/>
-        <s v="GRILLOT" u="1"/>
-        <s v="Gutierriz" u="1"/>
-        <s v="QUEVEDO" u="1"/>
-        <s v="PABON" u="1"/>
-        <s v="ISAACS" u="1"/>
-        <s v="SHAIKH" u="1"/>
-        <s v="PRESSEL" u="1"/>
-        <s v="KUYKENDALL" u="1"/>
-        <s v="MENG" u="1"/>
-        <s v="JOHNSON" u="1"/>
-        <s v="TAGHIYEV" u="1"/>
-        <s v="CHAPA" u="1"/>
-        <s v="SEGURA" u="1"/>
-        <s v="KEDAMBADI" u="1"/>
-        <s v="LASKOSKIE" u="1"/>
-        <s v="ADEJUYIGBE" u="1"/>
-        <s v="CZYSZCZEWSKI" u="1"/>
-        <s v="BREAUX" u="1"/>
-        <s v="BYRNES" u="1"/>
-        <s v="HOOPER" u="1"/>
-        <s v="TORRES" u="1"/>
-        <s v="BAUDOIN" u="1"/>
-        <s v="BOLLING" u="1"/>
-        <s v="FREANEY" u="1"/>
-        <s v="GILLETTE" u="1"/>
-        <s v="ROE" u="1"/>
-        <s v="HANNA" u="1"/>
-        <s v="MUNDORFF" u="1"/>
-        <s v="AYCOCK" u="1"/>
-        <s v="ADELEKE" u="1"/>
-        <s v="CABEZAS" u="1"/>
-        <s v="CONNICK" u="1"/>
-        <s v="ARMSTRONG" u="1"/>
-        <s v="RUIZ-SCHNITTER" u="1"/>
-        <s v="GRAY" u="1"/>
-        <s v="ELLIOTT" u="1"/>
-        <s v="GARLAND" u="1"/>
-        <s v="GAERTNER" u="1"/>
-        <s v="O'DONNELL" u="1"/>
-        <s v="Montesinos" u="1"/>
-        <s v="GREEN" u="1"/>
-        <s v="PALLEMPATI" u="1"/>
-        <s v="VILLARREAL" u="1"/>
-        <s v="FAIN" u="1"/>
-        <s v="BURGE" u="1"/>
-        <s v="PASSONE" u="1"/>
-        <s v="RAMIREZ" u="1"/>
-        <s v="SMITH" u="1"/>
-        <s v="FORTUNE" u="1"/>
-        <s v="THYSSEN" u="1"/>
-        <s v="APPEL" u="1"/>
-        <s v="LYOEN" u="1"/>
-        <s v="SAUER" u="1"/>
-        <s v="BARAKIS" u="1"/>
-        <s v="ROBICHAUX" u="1"/>
-        <s v="PRUDEN" u="1"/>
-        <s v="FERRARA" u="1"/>
-        <s v="OHLENFORST" u="1"/>
-        <s v="ABDURAHMANOV" u="1"/>
-        <s v="SCHIEBEL" u="1"/>
-        <s v="SACHS" u="1"/>
-        <s v="CARRUTH" u="1"/>
-        <s v="GEBHART" u="1"/>
-        <s v="TIMMONS" u="1"/>
-        <s v="THOMPSON" u="1"/>
-        <s v="CASTRO" u="1"/>
-        <s v="MOUTON" u="1"/>
-        <s v="VEERKAMP" u="1"/>
-        <s v="TRAFTON" u="1"/>
-        <s v="WILLIAMS" u="1"/>
-        <s v="STEVENSON" u="1"/>
-        <s v="PEPPER" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="OMS Function" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="Global Wells Organisation" u="1"/>
-        <s v="PSCM" u="1"/>
-        <s v="Global Projects Organisation" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Job Roles" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="12">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="GWO Data Maintainer_x000d__x000a_MRP Specialist_x000d__x000a_" u="1"/>
-        <s v="MRP Specialist_x000d__x000a_Service Entry Sheet Creator_x000d__x000a_" u="1"/>
-        <s v="Regional Backbone Administrator_x000d__x000a_" u="1"/>
-        <s v="Master Data Administrator - BOM/Product Structure_x000d__x000a_MRP Specialist_x000d__x000a_" u="1"/>
-        <s v="Service Entry Sheet Creator_x000d__x000a_" u="1"/>
-        <s v="Master Data Administrator - BOM/Product Structure_x000d__x000a_" u="1"/>
-        <s v="Inventory Optimisation Analyst_x000d__x000a_MRP Specialist_x000d__x000a_" u="1"/>
-        <s v="Materials Fabrication Requestor_x000d__x000a_MRP Specialist_x000d__x000a_PSCM Approver_x000d__x000a_PSCM Specialist_x000d__x000a_PSCM Team Leader_x000d__x000a_" u="1"/>
-        <s v="Master Data Administrator - BOM/Product Structure_x000d__x000a_Regional Backbone Administrator_x000d__x000a_" u="1"/>
-        <s v="Cost Approver Maintainer_x000d__x000a_Inventory Optimisation Analyst_x000d__x000a_Master Data Administrator - Item_x000d__x000a_Master Data Administrator - PSCM_x000d__x000a_Master Data Administrator - Warehouse_x000d__x000a_MRP Specialist_x000d__x000a_" u="1"/>
-        <s v="MRP Specialist_x000d__x000a_" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Course Area" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="6">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="NAV" u="1"/>
-        <s v="P2P" u="1"/>
-        <s v="OVR" u="1"/>
-        <s v="MM" u="1"/>
-        <s v="MM " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Course ID" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="38">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="MM101" u="1"/>
-        <s v="P2P011" u="1"/>
-        <s v="MM007" u="1"/>
-        <s v="NAV002" u="1"/>
-        <s v="P2P012" u="1"/>
-        <s v="NAV003" u="1"/>
-        <s v="P2P101" u="1"/>
-        <s v="MM016" u="1"/>
-        <s v="P2P013" u="1"/>
-        <s v="OVR101" u="1"/>
-        <s v="P2P014" u="1"/>
-        <s v="P2P001" u="1"/>
-        <s v="P2P015" u="1"/>
-        <s v="P2P002" u="1"/>
-        <s v="MM015" u="1"/>
-        <s v="OVR001" u="1"/>
-        <s v="P2P003" u="1"/>
-        <s v="MM005" u="1"/>
-        <s v="P2P005" u="1"/>
-        <s v="MM105" u="1"/>
-        <s v="P2P006" u="1"/>
-        <s v="MM014" u="1"/>
-        <s v="P2P007" u="1"/>
-        <s v="P2P009" u="1"/>
-        <s v="MM022" u="1"/>
-        <s v="MM119" u="1"/>
-        <s v="MM018" u="1"/>
-        <s v="MM002" u="1"/>
-        <s v="MM118" u="1"/>
-        <s v="MM008" u="1"/>
-        <s v="MM108" u="1"/>
-        <s v="MM017" u="1"/>
-        <s v="NAV102" u="1"/>
-        <s v="MM001" u="1"/>
-        <s v="MM117" u="1"/>
-        <s v="NAV103" u="1"/>
-        <s v="P2P010" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Course Name" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="30">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="Manage Material Care" u="1"/>
-        <s v="Bill of Materials" u="1"/>
-        <s v="MM Approvals" u="1"/>
-        <s v="Getting Started with SRM" u="1"/>
-        <s v="PSCM Approvals " u="1"/>
-        <s v="Material Master Data Overview" u="1"/>
-        <s v="Materials Management Overview" u="1"/>
-        <s v="Invoice Resolution and Tolerances" u="1"/>
-        <s v="Getting Started with SAP" u="1"/>
-        <s v="Supplier Enablement Overview" u="1"/>
-        <s v="Contract Activities" u="1"/>
-        <s v="Return to Vendor" u="1"/>
-        <s v="Backbone Overview" u="1"/>
-        <s v="Purchase Orders" u="1"/>
-        <s v="Confirm Services" u="1"/>
-        <s v="Kitting and De-Kitting" u="1"/>
-        <s v="Manage Inventory Replenishment" u="1"/>
-        <s v="Manage Surplus and Obsolete Materials" u="1"/>
-        <s v="Sourcing" u="1"/>
-        <s v="PSCM Master Data" u="1"/>
-        <s v="Purchase to Pay Overview" u="1"/>
-        <s v="Fabrication Shopping Carts" u="1"/>
-        <s v="Maintain Material Master Data" u="1"/>
-        <s v="Shopping Carts" u="1"/>
-        <s v="Fabrication" u="1"/>
-        <s v="Stock Demand" u="1"/>
-        <s v="Materials Management and Material Master Data Overview" u="1"/>
-        <s v="eBidding " u="1"/>
-        <s v="Inventory Optimization" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Course Type" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="Supplemental materials" u="1"/>
-        <s v="eLearning" u="1"/>
-        <s v="ILT" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Course Duration" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="10">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="6.0" u="1"/>
-        <s v="1.5" u="1"/>
-        <s v="4.0" u="1"/>
-        <s v="2.0" u="1"/>
-        <s v="0.0" u="1"/>
-        <s v="0.5" u="1"/>
-        <s v="3.0" u="1"/>
-        <s v="8.0" u="1"/>
-        <s v="1.0" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Primary / Secondary" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="S" u="1"/>
-        <s v="P" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Pre / Post Live" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="3">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
-        <s v="pre go-live" u="1"/>
-        <s v="post go-live" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1559,1062 +567,138 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTableReport" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A1:M4" firstHeaderRow="1" firstDataRow="1" firstDataCol="13"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTableReport" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A1:M3" firstHeaderRow="1" firstDataRow="1" firstDataCol="13"/>
   <pivotFields count="13">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" insertBlankRow="1" defaultSubtotal="0">
-      <items count="240">
-        <item m="1" x="35"/>
-        <item m="1" x="26"/>
-        <item m="1" x="223"/>
-        <item m="1" x="144"/>
-        <item m="1" x="53"/>
-        <item m="1" x="95"/>
-        <item m="1" x="224"/>
-        <item m="1" x="29"/>
-        <item m="1" x="206"/>
-        <item m="1" x="160"/>
-        <item m="1" x="238"/>
-        <item m="1" x="220"/>
-        <item m="1" x="178"/>
-        <item m="1" x="39"/>
-        <item m="1" x="69"/>
-        <item m="1" x="229"/>
-        <item m="1" x="225"/>
-        <item m="1" x="226"/>
-        <item m="1" x="54"/>
-        <item m="1" x="207"/>
-        <item m="1" x="154"/>
-        <item m="1" x="125"/>
-        <item m="1" x="227"/>
-        <item m="1" x="45"/>
-        <item m="1" x="74"/>
-        <item m="1" x="96"/>
-        <item m="1" x="157"/>
-        <item m="1" x="188"/>
-        <item m="1" x="179"/>
-        <item m="1" x="67"/>
-        <item m="1" x="140"/>
-        <item m="1" x="30"/>
-        <item m="1" x="91"/>
-        <item m="1" x="236"/>
-        <item m="1" x="211"/>
-        <item m="1" x="199"/>
-        <item m="1" x="79"/>
-        <item m="1" x="193"/>
-        <item m="1" x="115"/>
-        <item m="1" x="166"/>
-        <item m="1" x="94"/>
-        <item m="1" x="133"/>
-        <item m="1" x="136"/>
-        <item m="1" x="184"/>
-        <item m="1" x="75"/>
-        <item m="1" x="128"/>
-        <item m="1" x="104"/>
-        <item m="1" x="46"/>
-        <item m="1" x="36"/>
-        <item m="1" x="47"/>
-        <item m="1" x="137"/>
-        <item m="1" x="21"/>
-        <item m="1" x="203"/>
-        <item m="1" x="145"/>
-        <item m="1" x="19"/>
-        <item m="1" x="120"/>
-        <item m="1" x="205"/>
-        <item m="1" x="215"/>
-        <item m="1" x="212"/>
-        <item m="1" x="148"/>
-        <item m="1" x="27"/>
-        <item m="1" x="146"/>
-        <item m="1" x="48"/>
-        <item m="1" x="150"/>
-        <item m="1" x="109"/>
-        <item m="1" x="100"/>
-        <item m="1" x="116"/>
-        <item m="1" x="40"/>
-        <item m="1" x="126"/>
-        <item m="1" x="189"/>
-        <item m="1" x="43"/>
-        <item m="1" x="180"/>
-        <item m="1" x="208"/>
-        <item m="1" x="197"/>
-        <item m="1" x="101"/>
-        <item m="1" x="159"/>
-        <item m="1" x="181"/>
-        <item m="1" x="37"/>
-        <item m="1" x="81"/>
-        <item m="1" x="221"/>
-        <item m="1" x="194"/>
-        <item m="1" x="65"/>
-        <item m="1" x="141"/>
-        <item m="1" x="149"/>
-        <item m="1" x="198"/>
-        <item m="1" x="185"/>
-        <item m="1" x="10"/>
-        <item m="1" x="31"/>
-        <item m="1" x="5"/>
-        <item m="1" x="161"/>
-        <item m="1" x="83"/>
-        <item m="1" x="38"/>
-        <item m="1" x="164"/>
-        <item m="1" x="42"/>
-        <item m="1" x="110"/>
-        <item m="1" x="89"/>
-        <item m="1" x="51"/>
-        <item m="1" x="103"/>
-        <item m="1" x="84"/>
-        <item m="1" x="127"/>
-        <item m="1" x="142"/>
-        <item m="1" x="167"/>
-        <item m="1" x="105"/>
-        <item m="1" x="49"/>
-        <item m="1" x="98"/>
-        <item m="1" x="82"/>
-        <item m="1" x="80"/>
-        <item m="1" x="15"/>
-        <item m="1" x="85"/>
-        <item m="1" x="58"/>
-        <item m="1" x="222"/>
-        <item m="1" x="214"/>
-        <item m="1" x="129"/>
-        <item m="1" x="134"/>
-        <item m="1" x="121"/>
-        <item m="1" x="59"/>
-        <item m="1" x="158"/>
-        <item m="1" x="32"/>
-        <item m="1" x="44"/>
-        <item m="1" x="1"/>
-        <item m="1" x="92"/>
-        <item m="1" x="6"/>
-        <item m="1" x="183"/>
-        <item m="1" x="231"/>
-        <item m="1" x="153"/>
-        <item m="1" x="139"/>
-        <item m="1" x="52"/>
-        <item m="1" x="12"/>
-        <item m="1" x="165"/>
-        <item m="1" x="117"/>
-        <item m="1" x="162"/>
-        <item m="1" x="99"/>
-        <item m="1" x="66"/>
-        <item m="1" x="122"/>
-        <item m="1" x="93"/>
-        <item m="1" x="25"/>
-        <item m="1" x="76"/>
-        <item m="1" x="174"/>
-        <item m="1" x="172"/>
-        <item m="1" x="130"/>
-        <item m="1" x="13"/>
-        <item m="1" x="16"/>
-        <item m="1" x="33"/>
-        <item m="1" x="41"/>
-        <item m="1" x="175"/>
-        <item m="1" x="22"/>
-        <item m="1" x="216"/>
-        <item m="1" x="192"/>
-        <item m="1" x="123"/>
-        <item m="1" x="230"/>
-        <item m="1" x="186"/>
-        <item m="1" x="195"/>
-        <item m="1" x="124"/>
-        <item m="1" x="155"/>
-        <item m="1" x="239"/>
-        <item m="1" x="61"/>
-        <item m="1" x="190"/>
-        <item m="1" x="163"/>
-        <item m="1" x="182"/>
-        <item m="1" x="2"/>
-        <item m="1" x="23"/>
-        <item m="1" x="9"/>
-        <item m="1" x="90"/>
-        <item m="1" x="191"/>
-        <item m="1" x="237"/>
-        <item m="1" x="200"/>
-        <item m="1" x="3"/>
-        <item m="1" x="97"/>
-        <item m="1" x="77"/>
-        <item m="1" x="106"/>
-        <item m="1" x="169"/>
-        <item m="1" x="232"/>
-        <item m="1" x="50"/>
-        <item m="1" x="119"/>
-        <item m="1" x="70"/>
-        <item m="1" x="17"/>
-        <item m="1" x="114"/>
-        <item m="1" x="151"/>
-        <item m="1" x="234"/>
-        <item m="1" x="170"/>
-        <item m="1" x="73"/>
-        <item m="1" x="152"/>
-        <item m="1" x="209"/>
-        <item m="1" x="86"/>
-        <item m="1" x="213"/>
-        <item m="1" x="233"/>
-        <item m="1" x="168"/>
-        <item m="1" x="187"/>
-        <item m="1" x="4"/>
-        <item m="1" x="62"/>
-        <item m="1" x="173"/>
-        <item m="1" x="228"/>
-        <item m="1" x="196"/>
-        <item m="1" x="143"/>
-        <item m="1" x="11"/>
-        <item m="1" x="63"/>
-        <item m="1" x="135"/>
-        <item m="1" x="171"/>
-        <item m="1" x="156"/>
-        <item m="1" x="71"/>
-        <item m="1" x="107"/>
-        <item m="1" x="138"/>
-        <item m="1" x="118"/>
-        <item m="1" x="217"/>
-        <item m="1" x="55"/>
-        <item m="1" x="176"/>
-        <item m="1" x="56"/>
-        <item m="1" x="177"/>
-        <item m="1" x="68"/>
-        <item m="1" x="87"/>
-        <item m="1" x="204"/>
-        <item m="1" x="34"/>
-        <item m="1" x="18"/>
-        <item m="1" x="218"/>
-        <item m="1" x="111"/>
-        <item m="1" x="201"/>
-        <item m="1" x="88"/>
-        <item m="1" x="7"/>
-        <item m="1" x="20"/>
-        <item m="1" x="28"/>
-        <item m="1" x="147"/>
-        <item m="1" x="24"/>
-        <item m="1" x="235"/>
-        <item m="1" x="102"/>
-        <item m="1" x="202"/>
-        <item m="1" x="112"/>
-        <item m="1" x="14"/>
-        <item m="1" x="57"/>
-        <item m="1" x="64"/>
-        <item m="1" x="219"/>
-        <item m="1" x="113"/>
-        <item m="1" x="72"/>
-        <item m="1" x="210"/>
-        <item m="1" x="131"/>
-        <item m="1" x="8"/>
-        <item m="1" x="60"/>
-        <item m="1" x="132"/>
-        <item m="1" x="78"/>
-        <item m="1" x="108"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="240">
-        <item m="1" x="189"/>
-        <item m="1" x="59"/>
-        <item m="1" x="169"/>
-        <item m="1" x="174"/>
-        <item m="1" x="222"/>
-        <item m="1" x="224"/>
-        <item m="1" x="2"/>
-        <item m="1" x="197"/>
-        <item m="1" x="25"/>
-        <item m="1" x="165"/>
-        <item m="1" x="223"/>
-        <item m="1" x="148"/>
-        <item m="1" x="235"/>
-        <item m="1" x="80"/>
-        <item m="1" x="190"/>
-        <item m="1" x="157"/>
-        <item m="1" x="87"/>
-        <item m="1" x="163"/>
-        <item m="1" x="155"/>
-        <item m="1" x="95"/>
-        <item m="1" x="132"/>
-        <item m="1" x="10"/>
-        <item m="1" x="43"/>
-        <item m="1" x="166"/>
-        <item m="1" x="46"/>
-        <item m="1" x="156"/>
-        <item m="1" x="106"/>
-        <item m="1" x="142"/>
-        <item m="1" x="121"/>
-        <item m="1" x="108"/>
-        <item m="1" x="107"/>
-        <item m="1" x="39"/>
-        <item m="1" x="134"/>
-        <item m="1" x="206"/>
-        <item m="1" x="150"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="229"/>
-        <item m="1" x="21"/>
-        <item m="1" x="115"/>
-        <item m="1" x="19"/>
-        <item m="1" x="221"/>
-        <item m="1" x="181"/>
-        <item m="1" x="120"/>
-        <item m="1" x="218"/>
-        <item m="1" x="192"/>
-        <item m="1" x="151"/>
-        <item m="1" x="63"/>
-        <item m="1" x="170"/>
-        <item m="1" x="176"/>
-        <item m="1" x="178"/>
-        <item m="1" x="28"/>
-        <item m="1" x="61"/>
-        <item m="1" x="84"/>
-        <item m="1" x="209"/>
-        <item m="1" x="94"/>
-        <item m="1" x="173"/>
-        <item m="1" x="227"/>
-        <item m="1" x="99"/>
-        <item m="1" x="182"/>
-        <item m="1" x="55"/>
-        <item m="1" x="91"/>
-        <item m="1" x="184"/>
-        <item m="1" x="34"/>
-        <item m="1" x="33"/>
-        <item m="1" x="104"/>
-        <item m="1" x="98"/>
-        <item m="1" x="122"/>
-        <item m="1" x="29"/>
-        <item m="1" x="212"/>
-        <item m="1" x="127"/>
-        <item m="1" x="12"/>
-        <item m="1" x="232"/>
-        <item m="1" x="131"/>
-        <item m="1" x="125"/>
-        <item m="1" x="118"/>
-        <item m="1" x="152"/>
-        <item m="1" x="51"/>
-        <item m="1" x="129"/>
-        <item m="1" x="45"/>
-        <item m="1" x="109"/>
-        <item m="1" x="47"/>
-        <item m="1" x="159"/>
-        <item m="1" x="64"/>
-        <item m="1" x="105"/>
-        <item m="1" x="160"/>
-        <item m="1" x="203"/>
-        <item m="1" x="123"/>
-        <item m="1" x="44"/>
-        <item m="1" x="54"/>
-        <item m="1" x="119"/>
-        <item m="1" x="202"/>
-        <item m="1" x="208"/>
-        <item m="1" x="4"/>
-        <item m="1" x="30"/>
-        <item m="1" x="70"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="198"/>
-        <item m="1" x="8"/>
-        <item m="1" x="93"/>
-        <item m="1" x="71"/>
-        <item m="1" x="230"/>
-        <item m="1" x="68"/>
-        <item m="1" x="185"/>
-        <item m="1" x="88"/>
-        <item m="1" x="6"/>
-        <item m="1" x="101"/>
-        <item m="1" x="89"/>
-        <item m="1" x="18"/>
-        <item m="1" x="164"/>
-        <item m="1" x="26"/>
-        <item m="1" x="58"/>
-        <item m="1" x="228"/>
-        <item m="1" x="114"/>
-        <item m="1" x="3"/>
-        <item m="1" x="96"/>
-        <item m="1" x="139"/>
-        <item m="1" x="161"/>
-        <item m="1" x="15"/>
-        <item m="1" x="210"/>
-        <item m="1" x="97"/>
-        <item m="1" x="175"/>
-        <item m="1" x="111"/>
-        <item m="1" x="147"/>
-        <item m="1" x="195"/>
-        <item m="1" x="226"/>
-        <item m="1" x="37"/>
-        <item m="1" x="9"/>
-        <item m="1" x="36"/>
-        <item m="1" x="65"/>
-        <item m="1" x="77"/>
-        <item m="1" x="177"/>
-        <item m="1" x="1"/>
-        <item m="1" x="162"/>
-        <item m="1" x="7"/>
-        <item m="1" x="62"/>
-        <item m="1" x="144"/>
-        <item m="1" x="16"/>
-        <item m="1" x="79"/>
-        <item m="1" x="219"/>
-        <item m="1" x="42"/>
-        <item m="1" x="217"/>
-        <item m="1" x="113"/>
-        <item m="1" x="220"/>
-        <item m="1" x="211"/>
-        <item m="1" x="141"/>
-        <item m="1" x="194"/>
-        <item m="1" x="124"/>
-        <item m="1" x="14"/>
-        <item m="1" x="20"/>
-        <item m="1" x="193"/>
-        <item m="1" x="73"/>
-        <item m="1" x="135"/>
-        <item m="1" x="78"/>
-        <item m="1" x="32"/>
-        <item m="1" x="100"/>
-        <item m="1" x="204"/>
-        <item m="1" x="75"/>
-        <item m="1" x="199"/>
-        <item m="1" x="153"/>
-        <item m="1" x="167"/>
-        <item m="1" x="188"/>
-        <item m="1" x="180"/>
-        <item m="1" x="117"/>
-        <item m="1" x="186"/>
-        <item m="1" x="66"/>
-        <item m="1" x="110"/>
-        <item m="1" x="24"/>
-        <item m="1" x="213"/>
-        <item m="1" x="146"/>
-        <item m="1" x="81"/>
-        <item m="1" x="5"/>
-        <item m="1" x="126"/>
-        <item m="1" x="128"/>
-        <item m="1" x="103"/>
-        <item m="1" x="225"/>
-        <item m="1" x="22"/>
-        <item m="1" x="140"/>
-        <item m="1" x="200"/>
-        <item m="1" x="102"/>
-        <item m="1" x="231"/>
-        <item m="1" x="234"/>
-        <item m="1" x="237"/>
-        <item m="1" x="35"/>
-        <item m="1" x="183"/>
-        <item m="1" x="179"/>
-        <item m="1" x="236"/>
-        <item m="1" x="92"/>
-        <item m="1" x="85"/>
-        <item m="1" x="158"/>
-        <item m="1" x="201"/>
-        <item m="1" x="83"/>
-        <item m="1" x="67"/>
-        <item m="1" x="138"/>
-        <item m="1" x="145"/>
-        <item m="1" x="171"/>
-        <item m="1" x="11"/>
-        <item m="1" x="74"/>
-        <item m="1" x="56"/>
-        <item m="1" x="137"/>
-        <item m="1" x="233"/>
-        <item m="1" x="86"/>
-        <item m="1" x="196"/>
-        <item m="1" x="69"/>
-        <item m="1" x="27"/>
-        <item m="1" x="168"/>
-        <item m="1" x="49"/>
-        <item m="1" x="116"/>
-        <item m="1" x="130"/>
-        <item m="1" x="72"/>
-        <item m="1" x="112"/>
-        <item m="1" x="53"/>
-        <item m="1" x="149"/>
-        <item m="1" x="23"/>
-        <item m="1" x="214"/>
-        <item m="1" x="187"/>
-        <item m="1" x="48"/>
-        <item m="1" x="143"/>
-        <item m="1" x="191"/>
-        <item m="1" x="238"/>
-        <item m="1" x="60"/>
-        <item m="1" x="207"/>
-        <item m="1" x="52"/>
-        <item m="1" x="90"/>
-        <item m="1" x="172"/>
-        <item m="1" x="216"/>
-        <item m="1" x="13"/>
-        <item m="1" x="154"/>
-        <item m="1" x="38"/>
-        <item m="1" x="215"/>
-        <item m="1" x="50"/>
-        <item m="1" x="17"/>
-        <item m="1" x="57"/>
-        <item m="1" x="82"/>
-        <item m="1" x="133"/>
-        <item m="1" x="205"/>
-        <item m="1" x="239"/>
-        <item m="1" x="31"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="178">
-        <item m="1" x="64"/>
-        <item m="1" x="151"/>
-        <item m="1" x="40"/>
-        <item m="1" x="102"/>
-        <item m="1" x="126"/>
-        <item m="1" x="90"/>
-        <item m="1" x="106"/>
-        <item m="1" x="44"/>
-        <item m="1" x="71"/>
-        <item m="1" x="160"/>
-        <item m="1" x="3"/>
-        <item m="1" x="79"/>
-        <item m="1" x="176"/>
-        <item m="1" x="164"/>
-        <item m="1" x="49"/>
-        <item m="1" x="58"/>
-        <item m="1" x="21"/>
-        <item m="1" x="140"/>
-        <item m="1" x="11"/>
-        <item m="1" x="46"/>
-        <item m="1" x="123"/>
-        <item m="1" x="62"/>
-        <item m="1" x="149"/>
-        <item m="1" x="168"/>
-        <item m="1" x="115"/>
-        <item m="1" x="88"/>
-        <item m="1" x="159"/>
-        <item m="1" x="156"/>
-        <item m="1" x="6"/>
-        <item m="1" x="34"/>
-        <item m="1" x="45"/>
-        <item m="1" x="69"/>
-        <item m="1" x="26"/>
-        <item m="1" x="111"/>
-        <item m="1" x="97"/>
-        <item m="1" x="7"/>
-        <item m="1" x="56"/>
-        <item m="1" x="18"/>
-        <item m="1" x="42"/>
-        <item m="1" x="63"/>
-        <item m="1" x="28"/>
-        <item m="1" x="109"/>
-        <item m="1" x="138"/>
-        <item m="1" x="31"/>
-        <item m="1" x="59"/>
-        <item m="1" x="12"/>
-        <item m="1" x="101"/>
-        <item m="1" x="9"/>
-        <item m="1" x="70"/>
-        <item m="1" x="52"/>
-        <item m="1" x="98"/>
-        <item m="1" x="23"/>
-        <item m="1" x="61"/>
-        <item m="1" x="146"/>
-        <item m="1" x="108"/>
-        <item m="1" x="174"/>
-        <item m="1" x="80"/>
-        <item m="1" x="13"/>
-        <item m="1" x="165"/>
-        <item m="1" x="152"/>
-        <item m="1" x="83"/>
-        <item m="1" x="72"/>
-        <item m="1" x="124"/>
-        <item m="1" x="17"/>
-        <item m="1" x="132"/>
-        <item m="1" x="175"/>
-        <item m="1" x="153"/>
-        <item m="1" x="117"/>
-        <item m="1" x="127"/>
-        <item m="1" x="113"/>
-        <item m="1" x="116"/>
-        <item m="1" x="39"/>
-        <item m="1" x="1"/>
-        <item m="1" x="37"/>
-        <item m="1" x="120"/>
-        <item m="1" x="148"/>
-        <item m="1" x="27"/>
-        <item m="1" x="135"/>
-        <item m="1" x="147"/>
-        <item m="1" x="161"/>
-        <item m="1" x="119"/>
-        <item m="1" x="15"/>
-        <item m="1" x="66"/>
-        <item m="1" x="22"/>
-        <item m="1" x="105"/>
-        <item m="1" x="57"/>
-        <item m="1" x="51"/>
-        <item m="1" x="157"/>
-        <item m="1" x="171"/>
-        <item m="1" x="5"/>
-        <item m="1" x="121"/>
-        <item m="1" x="158"/>
-        <item m="1" x="81"/>
-        <item m="1" x="155"/>
-        <item m="1" x="170"/>
-        <item m="1" x="114"/>
-        <item m="1" x="32"/>
-        <item m="1" x="100"/>
-        <item m="1" x="177"/>
-        <item m="1" x="173"/>
-        <item m="1" x="65"/>
-        <item m="1" x="89"/>
-        <item m="1" x="94"/>
-        <item m="1" x="47"/>
-        <item m="1" x="96"/>
-        <item m="1" x="169"/>
-        <item m="1" x="150"/>
-        <item m="1" x="125"/>
-        <item m="1" x="104"/>
-        <item m="1" x="143"/>
-        <item m="1" x="172"/>
-        <item m="1" x="129"/>
-        <item m="1" x="91"/>
-        <item m="1" x="24"/>
-        <item m="1" x="92"/>
-        <item m="1" x="110"/>
-        <item m="1" x="122"/>
-        <item m="1" x="84"/>
-        <item m="1" x="76"/>
-        <item m="1" x="20"/>
-        <item m="1" x="107"/>
-        <item m="1" x="73"/>
-        <item m="1" x="29"/>
-        <item m="1" x="10"/>
-        <item m="1" x="167"/>
-        <item m="1" x="166"/>
-        <item m="1" x="19"/>
-        <item m="1" x="35"/>
-        <item m="1" x="95"/>
-        <item m="1" x="67"/>
-        <item m="1" x="93"/>
-        <item m="1" x="145"/>
-        <item m="1" x="82"/>
-        <item m="1" x="144"/>
-        <item m="1" x="68"/>
-        <item m="1" x="74"/>
-        <item m="1" x="141"/>
-        <item m="1" x="4"/>
-        <item m="1" x="8"/>
-        <item m="1" x="43"/>
-        <item m="1" x="99"/>
-        <item m="1" x="163"/>
-        <item m="1" x="136"/>
-        <item m="1" x="154"/>
-        <item m="1" x="60"/>
-        <item m="1" x="54"/>
-        <item m="1" x="85"/>
-        <item m="1" x="131"/>
-        <item m="1" x="25"/>
-        <item m="1" x="87"/>
-        <item m="1" x="86"/>
-        <item m="1" x="139"/>
-        <item m="1" x="103"/>
-        <item m="1" x="134"/>
-        <item m="1" x="36"/>
-        <item m="1" x="118"/>
-        <item m="1" x="2"/>
-        <item m="1" x="137"/>
-        <item m="1" x="112"/>
-        <item m="1" x="50"/>
-        <item m="1" x="41"/>
-        <item m="1" x="75"/>
-        <item m="1" x="78"/>
-        <item m="1" x="38"/>
-        <item m="1" x="133"/>
-        <item m="1" x="16"/>
-        <item m="1" x="53"/>
-        <item m="1" x="142"/>
-        <item m="1" x="33"/>
-        <item m="1" x="130"/>
-        <item m="1" x="162"/>
-        <item m="1" x="30"/>
-        <item m="1" x="128"/>
-        <item m="1" x="14"/>
-        <item m="1" x="55"/>
-        <item m="1" x="77"/>
-        <item m="1" x="48"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="234">
-        <item m="1" x="220"/>
-        <item m="1" x="177"/>
-        <item m="1" x="191"/>
-        <item m="1" x="41"/>
-        <item m="1" x="5"/>
-        <item m="1" x="135"/>
-        <item m="1" x="148"/>
-        <item m="1" x="101"/>
-        <item m="1" x="212"/>
-        <item m="1" x="194"/>
-        <item m="1" x="74"/>
-        <item m="1" x="190"/>
-        <item m="1" x="107"/>
-        <item m="1" x="95"/>
-        <item m="1" x="31"/>
-        <item m="1" x="215"/>
-        <item m="1" x="126"/>
-        <item m="1" x="39"/>
-        <item m="1" x="183"/>
-        <item m="1" x="63"/>
-        <item m="1" x="129"/>
-        <item m="1" x="76"/>
-        <item m="1" x="12"/>
-        <item m="1" x="184"/>
-        <item m="1" x="7"/>
-        <item m="1" x="40"/>
-        <item m="1" x="56"/>
-        <item m="1" x="100"/>
-        <item m="1" x="179"/>
-        <item m="1" x="112"/>
-        <item m="1" x="52"/>
-        <item m="1" x="206"/>
-        <item m="1" x="18"/>
-        <item m="1" x="4"/>
-        <item m="1" x="108"/>
-        <item m="1" x="180"/>
-        <item m="1" x="192"/>
-        <item m="1" x="223"/>
-        <item m="1" x="154"/>
-        <item m="1" x="227"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
-        <item m="1" x="173"/>
-        <item m="1" x="34"/>
-        <item m="1" x="193"/>
-        <item m="1" x="80"/>
-        <item m="1" x="122"/>
-        <item m="1" x="20"/>
-        <item m="1" x="44"/>
-        <item m="1" x="143"/>
-        <item m="1" x="89"/>
-        <item m="1" x="178"/>
-        <item m="1" x="70"/>
-        <item m="1" x="47"/>
-        <item m="1" x="9"/>
-        <item m="1" x="142"/>
-        <item m="1" x="81"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="144"/>
-        <item m="1" x="133"/>
-        <item m="1" x="110"/>
-        <item m="1" x="61"/>
-        <item m="1" x="197"/>
-        <item m="1" x="104"/>
-        <item m="1" x="67"/>
-        <item m="1" x="205"/>
-        <item m="1" x="218"/>
-        <item m="1" x="210"/>
-        <item m="1" x="54"/>
-        <item m="1" x="185"/>
-        <item m="1" x="199"/>
-        <item m="1" x="69"/>
-        <item m="1" x="134"/>
-        <item m="1" x="198"/>
-        <item m="1" x="45"/>
-        <item m="1" x="224"/>
-        <item m="1" x="3"/>
-        <item m="1" x="113"/>
-        <item m="1" x="53"/>
-        <item m="1" x="149"/>
-        <item m="1" x="26"/>
-        <item m="1" x="186"/>
-        <item m="1" x="77"/>
-        <item m="1" x="145"/>
-        <item m="1" x="150"/>
-        <item m="1" x="196"/>
-        <item m="1" x="202"/>
-        <item m="1" x="162"/>
-        <item m="1" x="57"/>
-        <item m="1" x="123"/>
-        <item m="1" x="48"/>
-        <item m="1" x="55"/>
-        <item m="1" x="163"/>
-        <item m="1" x="59"/>
-        <item m="1" x="102"/>
-        <item m="1" x="188"/>
-        <item m="1" x="37"/>
-        <item m="1" x="71"/>
-        <item m="1" x="46"/>
-        <item m="1" x="79"/>
-        <item m="1" x="90"/>
-        <item m="1" x="1"/>
-        <item m="1" x="127"/>
-        <item m="1" x="33"/>
-        <item m="1" x="94"/>
-        <item m="1" x="82"/>
-        <item m="1" x="30"/>
-        <item m="1" x="62"/>
-        <item m="1" x="181"/>
-        <item m="1" x="99"/>
-        <item m="1" x="120"/>
-        <item m="1" x="92"/>
-        <item m="1" x="87"/>
-        <item m="1" x="51"/>
-        <item m="1" x="166"/>
-        <item m="1" x="156"/>
-        <item m="1" x="151"/>
-        <item m="1" x="155"/>
-        <item m="1" x="153"/>
-        <item m="1" x="84"/>
-        <item m="1" x="171"/>
-        <item m="1" x="128"/>
-        <item m="1" x="175"/>
-        <item m="1" x="137"/>
-        <item m="1" x="109"/>
-        <item m="1" x="64"/>
-        <item m="1" x="27"/>
-        <item m="1" x="169"/>
-        <item m="1" x="103"/>
-        <item m="1" x="176"/>
-        <item m="1" x="91"/>
-        <item m="1" x="124"/>
-        <item m="1" x="85"/>
-        <item m="1" x="43"/>
-        <item m="1" x="86"/>
-        <item m="1" x="159"/>
-        <item m="1" x="130"/>
-        <item m="1" x="213"/>
-        <item m="1" x="158"/>
-        <item m="1" x="132"/>
-        <item m="1" x="17"/>
-        <item m="1" x="49"/>
-        <item m="1" x="97"/>
-        <item m="1" x="16"/>
-        <item m="1" x="170"/>
-        <item m="1" x="32"/>
-        <item m="1" x="15"/>
-        <item m="1" x="118"/>
-        <item m="1" x="201"/>
-        <item m="1" x="131"/>
-        <item m="1" x="42"/>
-        <item m="1" x="228"/>
-        <item m="1" x="189"/>
-        <item m="1" x="75"/>
-        <item m="1" x="146"/>
-        <item m="1" x="58"/>
-        <item m="1" x="72"/>
-        <item m="1" x="65"/>
-        <item m="1" x="140"/>
-        <item m="1" x="200"/>
-        <item m="1" x="219"/>
-        <item m="1" x="29"/>
-        <item m="1" x="13"/>
-        <item m="1" x="165"/>
-        <item m="1" x="203"/>
-        <item m="1" x="207"/>
-        <item m="1" x="125"/>
-        <item m="1" x="50"/>
-        <item m="1" x="25"/>
-        <item m="1" x="35"/>
-        <item m="1" x="233"/>
-        <item m="1" x="78"/>
-        <item m="1" x="24"/>
-        <item m="1" x="119"/>
-        <item m="1" x="114"/>
-        <item m="1" x="28"/>
-        <item m="1" x="168"/>
-        <item m="1" x="22"/>
-        <item m="1" x="152"/>
-        <item m="1" x="217"/>
-        <item m="1" x="164"/>
-        <item m="1" x="141"/>
-        <item m="1" x="208"/>
-        <item m="1" x="66"/>
-        <item m="1" x="116"/>
-        <item m="1" x="96"/>
-        <item m="1" x="216"/>
-        <item m="1" x="187"/>
-        <item m="1" x="23"/>
-        <item m="1" x="68"/>
-        <item m="1" x="195"/>
-        <item m="1" x="73"/>
-        <item m="1" x="157"/>
-        <item m="1" x="222"/>
-        <item m="1" x="117"/>
-        <item m="1" x="11"/>
-        <item m="1" x="105"/>
-        <item m="1" x="19"/>
-        <item m="1" x="214"/>
-        <item m="1" x="111"/>
-        <item m="1" x="221"/>
-        <item m="1" x="174"/>
-        <item m="1" x="83"/>
-        <item m="1" x="167"/>
-        <item m="1" x="209"/>
-        <item m="1" x="60"/>
-        <item m="1" x="160"/>
-        <item m="1" x="232"/>
-        <item m="1" x="106"/>
-        <item m="1" x="172"/>
-        <item m="1" x="2"/>
-        <item m="1" x="161"/>
-        <item m="1" x="226"/>
-        <item m="1" x="211"/>
-        <item m="1" x="14"/>
-        <item m="1" x="225"/>
-        <item m="1" x="147"/>
-        <item m="1" x="182"/>
-        <item m="1" x="230"/>
-        <item m="1" x="21"/>
-        <item m="1" x="138"/>
-        <item m="1" x="229"/>
-        <item m="1" x="204"/>
-        <item m="1" x="121"/>
-        <item m="1" x="10"/>
-        <item m="1" x="139"/>
-        <item m="1" x="98"/>
-        <item m="1" x="136"/>
-        <item m="1" x="231"/>
-        <item m="1" x="115"/>
-        <item m="1" x="93"/>
-        <item m="1" x="88"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item m="1" x="10"/>
-        <item m="1" x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item m="1" x="11"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="38">
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="18"/>
-        <item m="1" x="3"/>
-        <item m="1" x="30"/>
-        <item m="1" x="22"/>
-        <item m="1" x="15"/>
-        <item m="1" x="8"/>
-        <item m="1" x="32"/>
-        <item m="1" x="27"/>
-        <item m="1" x="25"/>
-        <item m="1" x="1"/>
-        <item m="1" x="20"/>
-        <item m="1" x="31"/>
-        <item m="1" x="35"/>
-        <item m="1" x="29"/>
-        <item m="1" x="26"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="33"/>
-        <item m="1" x="36"/>
-        <item m="1" x="16"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item m="1" x="21"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="37"/>
-        <item m="1" x="2"/>
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="11"/>
-        <item m="1" x="13"/>
-        <item m="1" x="7"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="30">
-        <item m="1" x="13"/>
-        <item m="1" x="2"/>
-        <item m="1" x="15"/>
-        <item m="1" x="11"/>
-        <item m="1" x="28"/>
-        <item m="1" x="25"/>
-        <item m="1" x="22"/>
-        <item m="1" x="9"/>
-        <item m="1" x="4"/>
-        <item m="1" x="29"/>
-        <item m="1" x="8"/>
-        <item m="1" x="16"/>
-        <item m="1" x="23"/>
-        <item m="1" x="17"/>
-        <item m="1" x="1"/>
-        <item m="1" x="18"/>
-        <item m="1" x="6"/>
-        <item m="1" x="27"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="20"/>
-        <item m="1" x="14"/>
-        <item m="1" x="21"/>
-        <item m="1" x="12"/>
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item m="1" x="26"/>
-        <item m="1" x="10"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="10">
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="9"/>
-        <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="8"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="3">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="1">
         <item x="0"/>
       </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
     </pivotField>
   </pivotFields>
   <rowFields count="13">
@@ -2632,24 +716,21 @@
     <field x="11"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
-      <x v="239"/>
-      <x v="239"/>
-      <x v="177"/>
-      <x v="233"/>
-      <x v="3"/>
-      <x v="11"/>
-      <x v="5"/>
-      <x v="37"/>
-      <x v="29"/>
-      <x v="3"/>
-      <x v="9"/>
-      <x v="2"/>
-      <x v="2"/>
-    </i>
-    <i t="blank">
-      <x v="239"/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -2658,31 +739,7 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <formats count="56">
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="6">
-          <reference field="0" count="1" selected="0">
-            <x v="238"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="181"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="137"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="232"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
+  <formats count="55">
     <format dxfId="54">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
@@ -2849,10 +906,10 @@
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -3168,7 +1225,7 @@
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="9" customFormat="1" ht="15.75">
@@ -3254,7 +1311,9 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3268,20 +1327,7 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="F4"/>
     </row>
     <row r="5" spans="1:13">
       <c r="F5"/>
@@ -3346,10 +1392,10 @@
     <row r="25" spans="6:6">
       <c r="F25"/>
     </row>
-    <row r="26" spans="6:6" ht="409.6">
+    <row r="26" spans="6:6">
       <c r="F26"/>
     </row>
-    <row r="27" spans="6:6" ht="409.6">
+    <row r="27" spans="6:6">
       <c r="F27"/>
     </row>
     <row r="28" spans="6:6">
@@ -14058,7 +12104,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -160,7 +160,892 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="220">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <sz val="12"/>
@@ -574,131 +1459,66 @@
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
       </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
     </pivotField>
   </pivotFields>
   <rowFields count="13">
@@ -740,176 +1560,176 @@
     <i/>
   </colItems>
   <formats count="55">
-    <format dxfId="54">
+    <format dxfId="219">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="218">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="217">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="216">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="215">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="214">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="213">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="212">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="211">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="210">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="209">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="208">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="207">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="206">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="205">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="204">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="203">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="202">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="201">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="200">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="199">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="198">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="197">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="196">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="195">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="194">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="193">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="192">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="191">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="190">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="189">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="188">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="187">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="186">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="185">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="184">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="183">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="182">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="181">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="180">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="179">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="178">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="177">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="176">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="175">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="174">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="173">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="172">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="171">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="170">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="169">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="168">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="167">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="166">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="165">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
   </extLst>
 </pivotTableDefinition>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -11,7 +11,7 @@
     <sheet name="COURSE REPORT" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COURSE REPORT'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'COURSE REPORT'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>NTID</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Mapping type</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -156,896 +159,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="220">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <sz val="12"/>
@@ -1352,11 +473,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41697.616153587966" missingItemsLimit="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41758.456735532411" missingItemsLimit="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M61410" sheet="COURSE REPORT"/>
+    <worksheetSource ref="A1:N61410" sheet="COURSE REPORT"/>
   </cacheSource>
-  <cacheFields count="13">
+  <cacheFields count="14">
     <cacheField name="NTID" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
@@ -1378,6 +499,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="OMS Function" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mapping type" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
@@ -1447,14 +573,20 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTableReport" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" showMissing="0" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A1:M3" firstHeaderRow="1" firstDataRow="1" firstDataCol="13"/>
-  <pivotFields count="13">
+  <location ref="A1:N3" firstHeaderRow="1" firstDataRow="1" firstDataCol="14"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="1">
         <item x="0"/>
@@ -1521,7 +653,7 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="13">
+  <rowFields count="14">
     <field x="0"/>
     <field x="1"/>
     <field x="2"/>
@@ -1535,9 +667,11 @@
     <field x="10"/>
     <field x="11"/>
     <field x="12"/>
+    <field x="13"/>
   </rowFields>
   <rowItems count="2">
     <i>
+      <x/>
       <x/>
       <x/>
       <x/>
@@ -1560,170 +694,170 @@
     <i/>
   </colItems>
   <formats count="55">
-    <format dxfId="219">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    <format dxfId="54">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="218">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="217">
+    <format dxfId="52">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="216">
+    <format dxfId="51">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="215">
+    <format dxfId="50">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="214">
+    <format dxfId="49">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="213">
+    <format dxfId="48">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="212">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="211">
+    <format dxfId="47">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="46">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="45">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="44">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="43">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="42">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="41">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="204">
+    <format dxfId="40">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="39">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="203">
+    <format dxfId="38">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="37">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="36">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="35">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="199">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="198">
+    <format dxfId="34">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="33">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="32">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="195">
+    <format dxfId="31">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="30">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="193">
+    <format dxfId="29">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="28">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="191">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
+    <format dxfId="27">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="26">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
+    </format>
+    <format dxfId="25">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="24">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="23">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="22">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="21">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="185">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="184">
+    <format dxfId="20">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="19">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="18">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="17">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="16">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="15">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="14">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="13">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
+    </format>
+    <format dxfId="12">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="11">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="10">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="9">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="8">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="172">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
-    </format>
-    <format dxfId="171">
+    <format dxfId="7">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="6">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="5">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="4">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="3">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="2">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="1">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
@@ -2022,13 +1156,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3592"/>
+  <dimension ref="A1:N3592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2038,17 +1172,17 @@
     <col min="3" max="3" width="13.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="26.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="43.42578125" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="15.75">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2064,32 +1198,35 @@
       <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -2129,8 +1266,11 @@
       <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2145,44 +1285,45 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="F16"/>
     </row>
     <row r="17" spans="6:6">
@@ -12921,7 +12062,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12931,20 +12072,20 @@
   <cols>
     <col min="1" max="1" width="15.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="113.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="113.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12961,32 +12102,35 @@
         <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -59,9 +59,6 @@
     <t>Job Roles</t>
   </si>
   <si>
-    <t>OMS Function</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Mapping type</t>
+  </si>
+  <si>
+    <t>Standard Function</t>
   </si>
 </sst>
 </file>
@@ -166,12 +166,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <sz val="12"/>
@@ -293,17 +288,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -450,13 +435,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment vertical="top" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -473,7 +451,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41758.456735532411" missingItemsLimit="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Lu Hong Hai" refreshedDate="41767.501679166664" missingItemsLimit="0" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N61410" sheet="COURSE REPORT"/>
   </cacheSource>
@@ -498,7 +476,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="OMS Function" numFmtId="0">
+    <cacheField name="Standard Function" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
@@ -693,147 +671,135 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <formats count="55">
-    <format dxfId="54">
+  <formats count="51">
+    <format dxfId="50">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="49">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="48">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="45">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="48">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="47">
+    <format dxfId="44">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="43">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="42">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="41">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="40">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="39">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="38">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="37">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="36">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="35">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="34">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="33">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="35">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="34">
+    <format dxfId="32">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="31">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="30">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="29">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="28">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="27">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="26">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="25">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="24">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="21">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="20">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="21">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
-    </format>
-    <format dxfId="20">
+    <format dxfId="19">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="18">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="17">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="16">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="10"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="11"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="13">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="12"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="13"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="9">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
     <format dxfId="7">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
@@ -1168,18 +1134,19 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="26.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="9" customFormat="1" ht="15.75">
@@ -1195,11 +1162,11 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
+      <c r="E1" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>11</v>
@@ -1228,51 +1195,51 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -12099,10 +12066,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>

--- a/data/reporting/End_User_To_Course_Report.xlsx
+++ b/data/reporting/End_User_To_Course_Report.xlsx
@@ -1134,11 +1134,11 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="17" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="24" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="13.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="17" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="26.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="54.5703125" bestFit="1" customWidth="1"/>
